--- a/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Garantia_Ingresos Causas Por Materia_2018-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Garantia_Ingresos Causas Por Materia_2018-Abríl.xlsx
@@ -247,137 +247,137 @@
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
+          <t xml:space="preserve">Abuso Sexual Calificado C/Introduccion Objetos O Uso Animal.</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
+          <t xml:space="preserve">Abuso Sexual Con Contacto De Menor De 14 Años. Art. 366 Bis</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Amenazas Simples Contra Personas Y Propiedades Art. 296 Nº3.</t>
+          <t xml:space="preserve">Amenazas Condic.c/Personas Y Propiedades Art.296 1Y2,Art.297</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Apropiacion Indebida Art.470 N°1</t>
+          <t xml:space="preserve">Amenazas Simples Contra Personas Y Propiedades Art. 296 Nº3.</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
+          <t xml:space="preserve">Apropiacion Indebida Art.470 N°1</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Resul.muerte Art.196 Inc.3Ley.transito.</t>
+          <t xml:space="preserve">Conduc.bajo Influen Del Alcohol Con O Sin Daños O Les.leves.</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+          <t xml:space="preserve">Conduc.ebriedad Resul.muerte Art.196 Inc.3Ley.transito.</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
+          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
+          <t xml:space="preserve">Conduc.vehic Durante Vig Alg.sanci Impuest Art209 Ley 18290.</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
         </is>
       </c>
       <c r="B18" s="65">
@@ -387,77 +387,77 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Daño Falta (495 Nr 21 Codigo Penal).</t>
+          <t xml:space="preserve">Cultivo/Cosecha Espec.vegetales Productoras Estupef.(Art.8.</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Daños Simples.</t>
+          <t xml:space="preserve">Daño Falta (495 Nr 21 Codigo Penal).</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
+          <t xml:space="preserve">Daños Simples.</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Disparos Injustif Vía Pública (Art. 14 D Inc. Final)</t>
+          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Expendio De Bebidas Alcoholicas A Menores.</t>
+          <t xml:space="preserve">Disparos Injustif Vía Pública (Art. 14 D Inc. Final)</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
+          <t xml:space="preserve">Expendio De Bebidas Alcoholicas A Menores.</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
+          <t xml:space="preserve">Falsificacion Licencia De Conducir Y Otras Falsificaciones.</t>
         </is>
       </c>
       <c r="B26" s="65">
@@ -467,17 +467,17 @@
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Hallazgo De Drogas.</t>
+          <t xml:space="preserve">Falta De Respeto A Autoridad Pública (495 Nº 4 Código Penal)</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Hallazgo De Drogas.</t>
         </is>
       </c>
       <c r="B28" s="65">
@@ -487,87 +487,87 @@
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Hurto Falta (494 Bis Codigo Penal).</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B31" s="65">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Incendio Solo C/Daños O Sin Peligro Propagacion.art.477,478.</t>
         </is>
       </c>
       <c r="B32" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Lesiones Leves 494 N°5 Código Penal</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Leves 494 N°5 Código Penal</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B36" s="65">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B37" s="65">
@@ -577,7 +577,7 @@
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
+          <t xml:space="preserve">Negativa A Efectuarse Examen. Art. 195 Bis Ley  De Transito</t>
         </is>
       </c>
       <c r="B38" s="65">
@@ -587,7 +587,7 @@
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">Ocult Ident En Control Prevent Art 496 N: 5 Y 12 Ley 20931</t>
         </is>
       </c>
       <c r="B39" s="65">
@@ -597,27 +597,27 @@
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
+          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
         </is>
       </c>
       <c r="B42" s="65">
@@ -627,57 +627,57 @@
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Parricidio.</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Parricidio.</t>
         </is>
       </c>
       <c r="B45" s="65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B47" s="65">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B48" s="65">
@@ -687,160 +687,170 @@
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B49" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B50" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B52" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B54" s="65">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B55" s="65">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B56" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
       <c t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B57" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B58" s="65">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B59" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B60" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B61" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
       <c t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B62" s="65">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c t="inlineStr" r="A63">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B63" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c t="inlineStr" r="A64">
         <is>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
+        </is>
+      </c>
+      <c r="B64" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c t="inlineStr" r="A65">
+        <is>
           <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
-      <c r="B64" s="65">
+      <c r="B65" s="65">
         <v>4</v>
       </c>
     </row>
